--- a/conakry/TEMP/MTN_Conakry_backup_tracker_2020-11-05.xlsx
+++ b/conakry/TEMP/MTN_Conakry_backup_tracker_2020-11-05.xlsx
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C5" s="25" t="inlineStr">
         <is>
-          <t>Not Done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="D5" s="25" t="inlineStr"/>
@@ -5454,18 +5454,18 @@
       </c>
       <c r="C5" s="25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Done</t>
         </is>
       </c>
       <c r="D5" s="25" t="inlineStr"/>
       <c r="E5" s="25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Done</t>
         </is>
       </c>
       <c r="F5" s="25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Done</t>
         </is>
       </c>
       <c r="G5" s="25" t="inlineStr"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C2" s="25" t="inlineStr">
         <is>
-          <t>Not Done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="D2" s="25" t="inlineStr"/>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="C3" s="25" t="inlineStr">
         <is>
-          <t>Not Done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="D3" s="25" t="inlineStr"/>
